--- a/DataTest/Profile.xlsx
+++ b/DataTest/Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DA931-E2F9-4B20-96F1-C0EE8B4BC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AB8DA931-E2F9-4B20-96F1-C0EE8B4BC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA55B2C1-FB38-4416-88D9-F9408E6BCEB7}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="3000" windowWidth="11916" windowHeight="8880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="4440" windowWidth="22905" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdateBasicInfo" sheetId="1" r:id="rId1"/>
@@ -491,19 +491,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="G5 C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -543,7 +543,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -560,7 +560,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -577,7 +577,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -597,7 +597,7 @@
         <v>888888</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -630,13 +630,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -660,7 +660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -681,16 +681,16 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -756,7 +756,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -779,7 +779,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -802,7 +802,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -825,7 +825,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -845,7 +845,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -874,19 +874,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FCFA16-FC63-4D00-A412-DA3A29082DFE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -932,7 +932,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -952,7 +952,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -969,7 +969,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -989,7 +989,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
